--- a/CEBAF/22GeV/Bmad/FFA ARCS/Nominal_FFA_arc_optics.xlsx
+++ b/CEBAF/22GeV/Bmad/FFA ARCS/Nominal_FFA_arc_optics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexcoxe/Downloads/FFA Optics + 6-pass lattices/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexcoxe/My Drive/code/taotaofornow/FFA_at_CEBAF/CEBAF/22GeV/Bmad/FFA ARCS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AB576A-4A47-F446-9A79-AD889A7B2DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBC9426-2DC5-3C46-9424-E04AC07E5BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36740" yWindow="500" windowWidth="34560" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - Entrance Optics for C" sheetId="1" r:id="rId1"/>
@@ -31,19 +31,10 @@
     <t>Starting x [m]</t>
   </si>
   <si>
-    <t>Starting px [eV]</t>
-  </si>
-  <si>
     <t>Beta x [m]</t>
   </si>
   <si>
-    <t>Alpha x</t>
-  </si>
-  <si>
     <t>Beta y [m]</t>
-  </si>
-  <si>
-    <t>Alpha y</t>
   </si>
   <si>
     <t>Dispersion [m]</t>
@@ -75,6 +66,15 @@
   <si>
     <t>West Arc:</t>
   </si>
+  <si>
+    <t xml:space="preserve">Starting px </t>
+  </si>
+  <si>
+    <t>Alpha y [m]</t>
+  </si>
+  <si>
+    <t>Alpha x [m]</t>
+  </si>
 </sst>
 </file>
 
@@ -84,7 +84,7 @@
     <numFmt numFmtId="164" formatCode="0.0###############E+00"/>
     <numFmt numFmtId="165" formatCode="0.0################E+00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -100,6 +100,13 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -241,7 +248,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -289,6 +296,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1419,11 +1429,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1460,31 +1470,31 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1498,31 +1508,31 @@
     </row>
     <row r="4" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4" s="8">
         <v>10.55</v>
       </c>
       <c r="C4" s="9">
-        <v>-2.7844507549877998E-2</v>
+        <v>-2.9080464999853999E-2</v>
       </c>
       <c r="D4" s="9">
-        <v>1.1164220128761001E-2</v>
+        <v>1.1164216851626E-2</v>
       </c>
       <c r="E4" s="9">
-        <v>3.5123464406870002</v>
+        <v>4.1573337355691002</v>
       </c>
       <c r="F4" s="9">
-        <v>2.7746083825243999</v>
+        <v>3.0488919600546001</v>
       </c>
       <c r="G4" s="9">
-        <v>7.2423180902351998</v>
+        <v>6.5150729995137002</v>
       </c>
       <c r="H4" s="9">
-        <v>-3.3794455314588001</v>
+        <v>-3.1895786934802</v>
       </c>
       <c r="I4" s="9">
-        <v>2.3896009656893001E-2</v>
+        <v>2.7206797930806999E-2</v>
       </c>
       <c r="J4" s="9">
         <v>-1.9785466231700001E-2</v>
@@ -1530,31 +1540,31 @@
     </row>
     <row r="5" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" s="8">
         <v>12.75</v>
       </c>
       <c r="C5" s="9">
-        <v>-2.4163623245667998E-2</v>
+        <v>-2.5058095800664999E-2</v>
       </c>
       <c r="D5" s="10">
-        <v>9.7652833782964008E-3</v>
+        <v>9.7652893452407005E-3</v>
       </c>
       <c r="E5" s="9">
-        <v>2.6291548907819999</v>
+        <v>2.9506399524601998</v>
       </c>
       <c r="F5" s="9">
-        <v>1.6874578198021</v>
+        <v>1.8215322314739999</v>
       </c>
       <c r="G5" s="9">
-        <v>7.0463356119766001</v>
+        <v>6.4768227369796003</v>
       </c>
       <c r="H5" s="9">
-        <v>-3.1811128200947998</v>
+        <v>-3.0365702492139</v>
       </c>
       <c r="I5" s="9">
-        <v>4.2726603853840001E-2</v>
+        <v>4.5664986458653002E-2</v>
       </c>
       <c r="J5" s="9">
         <v>-2.6443608797788998E-2</v>
@@ -1562,31 +1572,31 @@
     </row>
     <row r="6" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B6" s="8">
         <v>14.95</v>
       </c>
       <c r="C6" s="9">
-        <v>-1.8612817896635998E-2</v>
+        <v>-1.9203647887784999E-2</v>
       </c>
       <c r="D6" s="10">
-        <v>7.5638706580664003E-3</v>
+        <v>7.5638728647064004E-3</v>
       </c>
       <c r="E6" s="9">
-        <v>2.4851791587040002</v>
+        <v>2.7180364704422</v>
       </c>
       <c r="F6" s="9">
-        <v>1.4419937403508001</v>
+        <v>1.5387904553939999</v>
       </c>
       <c r="G6" s="9">
-        <v>7.5055711177862001</v>
+        <v>6.9948377770872998</v>
       </c>
       <c r="H6" s="9">
-        <v>-3.3322430140706998</v>
+        <v>-3.2062766405485998</v>
       </c>
       <c r="I6" s="9">
-        <v>5.8217758971322003E-2</v>
+        <v>6.0835789577751001E-2</v>
       </c>
       <c r="J6" s="9">
         <v>-3.0907714628267999E-2</v>
@@ -1594,31 +1604,31 @@
     </row>
     <row r="7" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" s="8">
         <v>17.149999999999999</v>
       </c>
       <c r="C7" s="9">
-        <v>-1.1512943458733001E-2</v>
+        <v>-1.1832591601694E-2</v>
       </c>
       <c r="D7" s="10">
-        <v>4.6947630840889001E-3</v>
+        <v>4.6947581901644001E-3</v>
       </c>
       <c r="E7" s="9">
-        <v>2.416948361547</v>
+        <v>2.6022614585302</v>
       </c>
       <c r="F7" s="9">
-        <v>1.3220730683951001</v>
+        <v>1.3994867221292</v>
       </c>
       <c r="G7" s="9">
-        <v>8.5383531068239993</v>
+        <v>8.0350171573933</v>
       </c>
       <c r="H7" s="9">
-        <v>-3.7564417011495999</v>
+        <v>-3.6359417269027001</v>
       </c>
       <c r="I7" s="9">
-        <v>7.1138884451384998E-2</v>
+        <v>7.3482886008641002E-2</v>
       </c>
       <c r="J7" s="9">
         <v>-3.3616811966600997E-2</v>
@@ -1626,31 +1636,31 @@
     </row>
     <row r="8" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B8" s="8">
         <v>19.350000000000001</v>
       </c>
       <c r="C8" s="10">
-        <v>-3.1137401491783999E-3</v>
+        <v>-3.1900210549523E-3</v>
       </c>
       <c r="D8" s="10">
-        <v>1.2640934134566001E-3</v>
+        <v>1.2640923154037999E-3</v>
       </c>
       <c r="E8" s="9">
-        <v>2.3669520300860998</v>
+        <v>2.5212645439264998</v>
       </c>
       <c r="F8" s="9">
-        <v>1.2460119388374999</v>
+        <v>1.3110903634302999</v>
       </c>
       <c r="G8" s="9">
-        <v>10.688732988036</v>
+        <v>10.13187578822</v>
       </c>
       <c r="H8" s="9">
-        <v>-4.6784470114526</v>
+        <v>-4.5492269199467996</v>
       </c>
       <c r="I8" s="9">
-        <v>8.2037688294982994E-2</v>
+        <v>8.4146830513147003E-2</v>
       </c>
       <c r="J8" s="9">
         <v>-3.4901409778486998E-2</v>
@@ -1658,31 +1668,31 @@
     </row>
     <row r="9" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B9" s="8">
         <v>21.55</v>
       </c>
       <c r="C9" s="10">
-        <v>6.3866565884058996E-3</v>
+        <v>6.5298894065619001E-3</v>
       </c>
       <c r="D9" s="10">
-        <v>-2.6433612508488E-3</v>
+        <v>-2.6433611220723998E-3</v>
       </c>
       <c r="E9" s="9">
-        <v>2.3231508500964999</v>
+        <v>2.4552439687396999</v>
       </c>
       <c r="F9" s="9">
-        <v>1.1906827919455001</v>
+        <v>1.2470750165433</v>
       </c>
       <c r="G9" s="9">
-        <v>17.665862979240998</v>
+        <v>16.840374417888999</v>
       </c>
       <c r="H9" s="9">
-        <v>-7.7098690833442998</v>
+        <v>-7.5244766306819999</v>
       </c>
       <c r="I9" s="9">
-        <v>9.1318916113607998E-2</v>
+        <v>9.3225906266648007E-2</v>
       </c>
       <c r="J9" s="9">
         <v>-3.5015344248356998E-2</v>
@@ -1702,7 +1712,7 @@
     </row>
     <row r="11" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="13"/>
@@ -1716,31 +1726,31 @@
     </row>
     <row r="12" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B12" s="8">
         <v>11.65</v>
       </c>
       <c r="C12" s="9">
-        <v>-2.2445493620773999E-2</v>
+        <v>-2.3361357167229001E-2</v>
       </c>
       <c r="D12" s="9">
-        <v>1.0077442606116E-2</v>
+        <v>1.0077442275456001E-2</v>
       </c>
       <c r="E12" s="9">
-        <v>2.7854984024273999</v>
+        <v>3.2542359363880999</v>
       </c>
       <c r="F12" s="9">
-        <v>2.4627077429297</v>
+        <v>2.6932879876258999</v>
       </c>
       <c r="G12" s="9">
-        <v>7.0887946650315001</v>
+        <v>6.4437682192284997</v>
       </c>
       <c r="H12" s="9">
-        <v>-3.6400261424735998</v>
+        <v>-3.4573353445783002</v>
       </c>
       <c r="I12" s="9">
-        <v>2.5299120784454999E-2</v>
+        <v>2.7889535483145999E-2</v>
       </c>
       <c r="J12" s="9">
         <v>-2.0838887526796E-2</v>
@@ -1748,31 +1758,31 @@
     </row>
     <row r="13" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B13" s="8">
         <v>13.85</v>
       </c>
       <c r="C13" s="9">
-        <v>-1.8893846377933999E-2</v>
+        <v>-1.9545773369158002E-2</v>
       </c>
       <c r="D13" s="10">
-        <v>8.5285643008371007E-3</v>
+        <v>8.5285642757475001E-3</v>
       </c>
       <c r="E13" s="9">
-        <v>2.2535896630493002</v>
+        <v>2.5100642699782001</v>
       </c>
       <c r="F13" s="9">
-        <v>1.6160804783150999</v>
+        <v>1.7386072627078999</v>
       </c>
       <c r="G13" s="9">
-        <v>6.7000500300389003</v>
+        <v>6.2001154993528997</v>
       </c>
       <c r="H13" s="9">
-        <v>-3.3394116059546</v>
+        <v>-3.2007740235314999</v>
       </c>
       <c r="I13" s="9">
-        <v>4.0428627672047003E-2</v>
+        <v>4.2761779656091001E-2</v>
       </c>
       <c r="J13" s="9">
         <v>-2.6422587314556999E-2</v>
@@ -1780,31 +1790,31 @@
     </row>
     <row r="14" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B14" s="8">
         <v>16.05</v>
       </c>
       <c r="C14" s="9">
-        <v>-1.3855524702658E-2</v>
+        <v>-1.4269545884991E-2</v>
       </c>
       <c r="D14" s="10">
-        <v>6.2769029297865004E-3</v>
+        <v>6.2769029300731999E-3</v>
       </c>
       <c r="E14" s="9">
-        <v>2.1688712261509999</v>
+        <v>2.3597862744145002</v>
       </c>
       <c r="F14" s="9">
-        <v>1.4020231594106001</v>
+        <v>1.4922205482990001</v>
       </c>
       <c r="G14" s="9">
-        <v>6.9302201316865002</v>
+        <v>6.4897698637688999</v>
       </c>
       <c r="H14" s="9">
-        <v>-3.3985177887598002</v>
+        <v>-3.2790719057766999</v>
       </c>
       <c r="I14" s="9">
-        <v>5.3107624998154003E-2</v>
+        <v>-3.0179084116985E-2</v>
       </c>
       <c r="J14" s="9">
         <v>-3.0179084079827001E-2</v>
@@ -1812,31 +1822,31 @@
     </row>
     <row r="15" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B15" s="8">
         <v>18.25</v>
       </c>
       <c r="C15" s="10">
-        <v>-7.5640131349261003E-3</v>
+        <v>-7.7630003810187998E-3</v>
       </c>
       <c r="D15" s="10">
-        <v>3.4304149714455999E-3</v>
+        <v>3.4304149713981998E-3</v>
       </c>
       <c r="E15" s="9">
-        <v>2.1316171139093001</v>
+        <v>2.2861877995300999</v>
       </c>
       <c r="F15" s="9">
-        <v>1.2958751749827999</v>
+        <v>1.3687866620975999</v>
       </c>
       <c r="G15" s="9">
-        <v>7.5803627135077001</v>
+        <v>7.1596095218619</v>
       </c>
       <c r="H15" s="9">
-        <v>-3.6824707661024001</v>
+        <v>-3.5710496262152001</v>
       </c>
       <c r="I15" s="9">
-        <v>6.3856696431897994E-2</v>
+        <v>6.5763131015224005E-2</v>
       </c>
       <c r="J15" s="9">
         <v>-3.2442317289660003E-2</v>
@@ -1844,31 +1854,31 @@
     </row>
     <row r="16" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B16" s="8">
         <v>20.45</v>
       </c>
       <c r="C16" s="14">
-        <v>-2.0502267744882001E-4</v>
+        <v>-2.0895362365106E-4</v>
       </c>
       <c r="D16" s="14">
-        <v>7.5936805129229995E-5</v>
+        <v>7.5936804217188001E-5</v>
       </c>
       <c r="E16" s="9">
-        <v>2.1035178691880998</v>
+        <v>2.2338883824106999</v>
       </c>
       <c r="F16" s="9">
-        <v>1.2283576221765999</v>
+        <v>1.2900988929787001</v>
       </c>
       <c r="G16" s="9">
-        <v>8.8314107826512007</v>
+        <v>8.3955769364999995</v>
       </c>
       <c r="H16" s="9">
-        <v>-4.2659159511105997</v>
+        <v>-4.1533850756586999</v>
       </c>
       <c r="I16" s="9">
-        <v>7.3056145257117996E-2</v>
+        <v>7.4788768870607994E-2</v>
       </c>
       <c r="J16" s="9">
         <v>-3.3470051859051997E-2</v>
@@ -1876,31 +1886,31 @@
     </row>
     <row r="17" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B17" s="8">
         <v>22.65</v>
       </c>
       <c r="C17" s="10">
-        <v>8.0712573126295005E-3</v>
+        <v>8.2449285486630008E-3</v>
       </c>
       <c r="D17" s="10">
-        <v>-3.7158263895231999E-3</v>
+        <v>-3.7158263906614999E-3</v>
       </c>
       <c r="E17" s="9">
-        <v>2.077099285354</v>
+        <v>2.1898408665194</v>
       </c>
       <c r="F17" s="9">
-        <v>1.1791864863720001</v>
+        <v>1.2329769623244</v>
       </c>
       <c r="G17" s="9">
-        <v>11.559513521896999</v>
+        <v>11.045424775241999</v>
       </c>
       <c r="H17" s="9">
-        <v>-5.5642709848598004</v>
+        <v>-5.4350435287875998</v>
       </c>
       <c r="I17" s="9">
-        <v>8.0993463500007995E-2</v>
+        <v>8.2574052852067995E-2</v>
       </c>
       <c r="J17" s="9">
         <v>-3.3464797217524003E-2</v>

--- a/CEBAF/22GeV/Bmad/FFA ARCS/Nominal_FFA_arc_optics.xlsx
+++ b/CEBAF/22GeV/Bmad/FFA ARCS/Nominal_FFA_arc_optics.xlsx
@@ -1,26 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexcoxe/My Drive/code/taotaofornow/FFA_at_CEBAF/CEBAF/22GeV/Bmad/FFA ARCS/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBC9426-2DC5-3C46-9424-E04AC07E5BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - Entrance Optics for C" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1 - Entrance Optics for C" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>Entrance Optics for CEBAF FFA Arcs proper</t>
   </si>
@@ -31,10 +22,19 @@
     <t>Starting x [m]</t>
   </si>
   <si>
+    <t xml:space="preserve">Starting px </t>
+  </si>
+  <si>
     <t>Beta x [m]</t>
   </si>
   <si>
+    <t>Alpha x [m]</t>
+  </si>
+  <si>
     <t>Beta y [m]</t>
+  </si>
+  <si>
+    <t>Alpha y [m]</t>
   </si>
   <si>
     <t>Dispersion [m]</t>
@@ -66,25 +66,18 @@
   <si>
     <t>West Arc:</t>
   </si>
-  <si>
-    <t xml:space="preserve">Starting px </t>
-  </si>
-  <si>
-    <t>Alpha y [m]</t>
-  </si>
-  <si>
-    <t>Alpha x [m]</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0###############E+00"/>
-    <numFmt numFmtId="165" formatCode="0.0################E+00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="59" formatCode="0.0################E+00"/>
+    <numFmt numFmtId="60" formatCode="0.0?##############E+00"/>
+    <numFmt numFmtId="61" formatCode="0.0?###############E+00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -96,20 +89,18 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b/>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,8 +119,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="14"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -141,6 +138,28 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -154,7 +173,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
@@ -163,7 +182,7 @@
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -172,43 +191,43 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -217,87 +236,108 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="60" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="61" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -308,85 +348,28 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFBDC0BF"/>
-      <rgbColor rgb="FFA5A5A5"/>
-      <rgbColor rgb="FF3F3F3F"/>
-      <rgbColor rgb="FFDBDBDB"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ffbdc0bf"/>
+      <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffdbdbdb"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -396,10 +379,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -576,46 +559,49 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:srgbClr val="000000"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue Medium"/>
-            <a:ea typeface="Helvetica Neue Medium"/>
-            <a:cs typeface="Helvetica Neue Medium"/>
-            <a:sym typeface="Helvetica Neue Medium"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -632,7 +618,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -657,7 +643,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -682,7 +668,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -707,7 +693,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -732,7 +718,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -757,7 +743,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -782,7 +768,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -807,7 +793,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -832,7 +818,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -845,32 +831,26 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -888,7 +868,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -913,7 +893,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -938,7 +918,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -963,7 +943,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -988,7 +968,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1013,7 +993,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1038,7 +1018,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1063,7 +1043,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1088,7 +1068,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1113,7 +1093,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1126,15 +1106,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1148,25 +1122,25 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1195,7 +1169,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1220,7 +1194,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1245,7 +1219,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1270,7 +1244,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1295,7 +1269,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1320,7 +1294,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1345,7 +1319,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1370,7 +1344,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1395,7 +1369,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1408,604 +1382,591 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="20" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="16.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" style="1" customWidth="1"/>
+    <col min="1" max="2" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.3516" style="1" customWidth="1"/>
     <col min="4" max="4" width="19" style="1" customWidth="1"/>
-    <col min="5" max="8" width="16.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="16.33203125" style="1"/>
+    <col min="5" max="8" width="16.3516" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.6719" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.6719" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+    <row r="1" ht="27.75" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" ht="20.25" customHeight="1">
+      <c r="A2" s="5"/>
+      <c r="B2" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" t="s" s="6">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s" s="6">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s" s="6">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s" s="6">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s" s="6">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="20.25" customHeight="1">
+      <c r="A3" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" ht="20" customHeight="1">
+      <c r="A4" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="B4" s="11">
+        <v>10.55</v>
+      </c>
+      <c r="C4" s="12">
+        <v>-0.0436087305176379</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.0155552745077088</v>
+      </c>
+      <c r="E4" s="12">
+        <v>4.1508304892725</v>
+      </c>
+      <c r="F4" s="12">
+        <v>3.04136252009654</v>
+      </c>
+      <c r="G4" s="12">
+        <v>6.51603055785875</v>
+      </c>
+      <c r="H4" s="12">
+        <v>-3.19043648875242</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0.0138452718942311</v>
+      </c>
+      <c r="J4" s="13">
+        <v>-0.00277130208058579</v>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1">
+      <c r="A5" t="s" s="10">
+        <v>12</v>
+      </c>
+      <c r="B5" s="11">
+        <v>12.75</v>
+      </c>
+      <c r="C5" s="12">
+        <v>-0.0409525730004828</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0.0147559319960306</v>
+      </c>
+      <c r="E5" s="12">
+        <v>2.95127494069073</v>
+      </c>
+      <c r="F5" s="12">
+        <v>1.8208079285196</v>
+      </c>
+      <c r="G5" s="12">
+        <v>6.48123130236922</v>
+      </c>
+      <c r="H5" s="12">
+        <v>-3.03911875776415</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0.0340008677073184</v>
+      </c>
+      <c r="J5" s="12">
+        <v>-0.0115485013128782</v>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1">
+      <c r="A6" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="B6" s="11">
+        <v>14.95</v>
+      </c>
+      <c r="C6" s="12">
+        <v>-0.0362966696399195</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0.0130824127712224</v>
+      </c>
+      <c r="E6" s="12">
+        <v>2.71913321206253</v>
+      </c>
+      <c r="F6" s="12">
+        <v>1.53868984101792</v>
+      </c>
+      <c r="G6" s="12">
+        <v>7.00352764852784</v>
+      </c>
+      <c r="H6" s="12">
+        <v>-3.21082648184389</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0.0505544157078299</v>
+      </c>
+      <c r="J6" s="12">
+        <v>-0.0188092906593646</v>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1">
+      <c r="A7" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="B7" s="11">
+        <v>17.15</v>
+      </c>
+      <c r="C7" s="12">
+        <v>-0.0299863087430663</v>
+      </c>
+      <c r="D7" s="14">
+        <v>0.0106815841563052</v>
+      </c>
+      <c r="E7" s="12">
+        <v>2.6034397258576</v>
+      </c>
+      <c r="F7" s="12">
+        <v>1.39958735297551</v>
+      </c>
+      <c r="G7" s="12">
+        <v>8.052057535151279</v>
+      </c>
+      <c r="H7" s="12">
+        <v>-3.6443284888345</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0.0643481330449969</v>
+      </c>
+      <c r="J7" s="12">
+        <v>-0.0248853956118689</v>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1">
+      <c r="A8" t="s" s="10">
         <v>15</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="16" t="s">
+      <c r="B8" s="11">
+        <v>19.35</v>
+      </c>
+      <c r="C8" s="14">
+        <v>-0.0222893589965087</v>
+      </c>
+      <c r="D8" s="14">
+        <v>0.0076690912051409</v>
+      </c>
+      <c r="E8" s="12">
+        <v>2.52243804474367</v>
+      </c>
+      <c r="F8" s="12">
+        <v>1.31128039605503</v>
+      </c>
+      <c r="G8" s="12">
+        <v>10.1727948467965</v>
+      </c>
+      <c r="H8" s="12">
+        <v>-4.56846538434045</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0.0759754695388524</v>
+      </c>
+      <c r="J8" s="12">
+        <v>-0.0300213291075307</v>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1">
+      <c r="A9" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="B9" s="11">
+        <v>21.55</v>
+      </c>
+      <c r="C9" s="14">
+        <v>-0.0134178722507585</v>
+      </c>
+      <c r="D9" s="14">
+        <v>0.0041372842285447</v>
+      </c>
+      <c r="E9" s="12">
+        <v>2.45638340489052</v>
+      </c>
+      <c r="F9" s="12">
+        <v>1.24730951583771</v>
+      </c>
+      <c r="G9" s="12">
+        <v>17.058271156799</v>
+      </c>
+      <c r="H9" s="12">
+        <v>-7.6232894820465</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0.08587261718733941</v>
+      </c>
+      <c r="J9" s="12">
+        <v>-0.0344013180460645</v>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="1">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" ht="20" customHeight="1">
+      <c r="A11" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="16" t="s">
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" ht="20" customHeight="1">
+      <c r="A12" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <v>11.65</v>
+      </c>
+      <c r="C12" s="12">
+        <v>-0.0389374046590185</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0.0154442878319262</v>
+      </c>
+      <c r="E12" s="12">
+        <v>3.2501135949453</v>
+      </c>
+      <c r="F12" s="12">
+        <v>2.68700122067699</v>
+      </c>
+      <c r="G12" s="12">
+        <v>6.44386633043829</v>
+      </c>
+      <c r="H12" s="12">
+        <v>-3.45780246038574</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0.0139449750600747</v>
+      </c>
+      <c r="J12" s="13">
+        <v>-0.00406044915538919</v>
+      </c>
+    </row>
+    <row r="13" ht="20" customHeight="1">
+      <c r="A13" t="s" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>13.85</v>
+      </c>
+      <c r="C13" s="12">
+        <v>-0.0365289803056692</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0.014573162900559</v>
+      </c>
+      <c r="E13" s="12">
+        <v>2.51078042005007</v>
+      </c>
+      <c r="F13" s="12">
+        <v>1.73785747433735</v>
+      </c>
+      <c r="G13" s="12">
+        <v>6.20353677475494</v>
+      </c>
+      <c r="H13" s="12">
+        <v>-3.20302854477645</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0.0304291114414256</v>
+      </c>
+      <c r="J13" s="12">
+        <v>-0.0119418937068879</v>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1">
+      <c r="A14" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11">
+        <v>16.05</v>
+      </c>
+      <c r="C14" s="12">
+        <v>-0.0325024137663096</v>
+      </c>
+      <c r="D14" s="14">
+        <v>0.0129255203423081</v>
+      </c>
+      <c r="E14" s="12">
+        <v>2.36090899589015</v>
+      </c>
+      <c r="F14" s="12">
+        <v>1.49211625403852</v>
+      </c>
+      <c r="G14" s="12">
+        <v>6.49652306530507</v>
+      </c>
+      <c r="H14" s="12">
+        <v>-3.28304178427587</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0.0442169570571439</v>
+      </c>
+      <c r="J14" s="12">
+        <v>-0.0185800319199566</v>
+      </c>
+    </row>
+    <row r="15" ht="20" customHeight="1">
+      <c r="A15" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
+        <v>18.25</v>
+      </c>
+      <c r="C15" s="14">
+        <v>-0.0271138841748744</v>
+      </c>
+      <c r="D15" s="14">
+        <v>0.0106207057835257</v>
+      </c>
+      <c r="E15" s="12">
+        <v>2.28739303877949</v>
+      </c>
+      <c r="F15" s="12">
+        <v>1.36890301161976</v>
+      </c>
+      <c r="G15" s="12">
+        <v>7.17180700488253</v>
+      </c>
+      <c r="H15" s="12">
+        <v>-3.57777523301207</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0.0558925826489235</v>
+      </c>
+      <c r="J15" s="12">
+        <v>-0.0242251242481417</v>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1">
+      <c r="A16" t="s" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <v>20.45</v>
+      </c>
+      <c r="C16" s="18">
+        <v>-0.0205663205329409</v>
+      </c>
+      <c r="D16" s="18">
+        <v>0.00775469102585442</v>
+      </c>
+      <c r="E16" s="12">
+        <v>2.2350974060786</v>
+      </c>
+      <c r="F16" s="12">
+        <v>1.29031753957394</v>
+      </c>
+      <c r="G16" s="12">
+        <v>8.41965010292637</v>
+      </c>
+      <c r="H16" s="12">
+        <v>-4.16606234994809</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0.0658773587546701</v>
+      </c>
+      <c r="J16" s="12">
+        <v>-0.0290662320360936</v>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="1">
+      <c r="A17" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="8">
-        <v>10.55</v>
-      </c>
-      <c r="C4" s="9">
-        <v>-2.9080464999853999E-2</v>
-      </c>
-      <c r="D4" s="9">
-        <v>1.1164216851626E-2</v>
-      </c>
-      <c r="E4" s="9">
-        <v>4.1573337355691002</v>
-      </c>
-      <c r="F4" s="9">
-        <v>3.0488919600546001</v>
-      </c>
-      <c r="G4" s="9">
-        <v>6.5150729995137002</v>
-      </c>
-      <c r="H4" s="9">
-        <v>-3.1895786934802</v>
-      </c>
-      <c r="I4" s="9">
-        <v>2.7206797930806999E-2</v>
-      </c>
-      <c r="J4" s="9">
-        <v>-1.9785466231700001E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="8">
-        <v>12.75</v>
-      </c>
-      <c r="C5" s="9">
-        <v>-2.5058095800664999E-2</v>
-      </c>
-      <c r="D5" s="10">
-        <v>9.7652893452407005E-3</v>
-      </c>
-      <c r="E5" s="9">
-        <v>2.9506399524601998</v>
-      </c>
-      <c r="F5" s="9">
-        <v>1.8215322314739999</v>
-      </c>
-      <c r="G5" s="9">
-        <v>6.4768227369796003</v>
-      </c>
-      <c r="H5" s="9">
-        <v>-3.0365702492139</v>
-      </c>
-      <c r="I5" s="9">
-        <v>4.5664986458653002E-2</v>
-      </c>
-      <c r="J5" s="9">
-        <v>-2.6443608797788998E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="8">
-        <v>14.95</v>
-      </c>
-      <c r="C6" s="9">
-        <v>-1.9203647887784999E-2</v>
-      </c>
-      <c r="D6" s="10">
-        <v>7.5638728647064004E-3</v>
-      </c>
-      <c r="E6" s="9">
-        <v>2.7180364704422</v>
-      </c>
-      <c r="F6" s="9">
-        <v>1.5387904553939999</v>
-      </c>
-      <c r="G6" s="9">
-        <v>6.9948377770872998</v>
-      </c>
-      <c r="H6" s="9">
-        <v>-3.2062766405485998</v>
-      </c>
-      <c r="I6" s="9">
-        <v>6.0835789577751001E-2</v>
-      </c>
-      <c r="J6" s="9">
-        <v>-3.0907714628267999E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="8">
-        <v>17.149999999999999</v>
-      </c>
-      <c r="C7" s="9">
-        <v>-1.1832591601694E-2</v>
-      </c>
-      <c r="D7" s="10">
-        <v>4.6947581901644001E-3</v>
-      </c>
-      <c r="E7" s="9">
-        <v>2.6022614585302</v>
-      </c>
-      <c r="F7" s="9">
-        <v>1.3994867221292</v>
-      </c>
-      <c r="G7" s="9">
-        <v>8.0350171573933</v>
-      </c>
-      <c r="H7" s="9">
-        <v>-3.6359417269027001</v>
-      </c>
-      <c r="I7" s="9">
-        <v>7.3482886008641002E-2</v>
-      </c>
-      <c r="J7" s="9">
-        <v>-3.3616811966600997E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="8">
-        <v>19.350000000000001</v>
-      </c>
-      <c r="C8" s="10">
-        <v>-3.1900210549523E-3</v>
-      </c>
-      <c r="D8" s="10">
-        <v>1.2640923154037999E-3</v>
-      </c>
-      <c r="E8" s="9">
-        <v>2.5212645439264998</v>
-      </c>
-      <c r="F8" s="9">
-        <v>1.3110903634302999</v>
-      </c>
-      <c r="G8" s="9">
-        <v>10.13187578822</v>
-      </c>
-      <c r="H8" s="9">
-        <v>-4.5492269199467996</v>
-      </c>
-      <c r="I8" s="9">
-        <v>8.4146830513147003E-2</v>
-      </c>
-      <c r="J8" s="9">
-        <v>-3.4901409778486998E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="8">
-        <v>21.55</v>
-      </c>
-      <c r="C9" s="10">
-        <v>6.5298894065619001E-3</v>
-      </c>
-      <c r="D9" s="10">
-        <v>-2.6433611220723998E-3</v>
-      </c>
-      <c r="E9" s="9">
-        <v>2.4552439687396999</v>
-      </c>
-      <c r="F9" s="9">
-        <v>1.2470750165433</v>
-      </c>
-      <c r="G9" s="9">
-        <v>16.840374417888999</v>
-      </c>
-      <c r="H9" s="9">
-        <v>-7.5244766306819999</v>
-      </c>
-      <c r="I9" s="9">
-        <v>9.3225906266648007E-2</v>
-      </c>
-      <c r="J9" s="9">
-        <v>-3.5015344248356998E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-    </row>
-    <row r="11" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-    </row>
-    <row r="12" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="8">
-        <v>11.65</v>
-      </c>
-      <c r="C12" s="9">
-        <v>-2.3361357167229001E-2</v>
-      </c>
-      <c r="D12" s="9">
-        <v>1.0077442275456001E-2</v>
-      </c>
-      <c r="E12" s="9">
-        <v>3.2542359363880999</v>
-      </c>
-      <c r="F12" s="9">
-        <v>2.6932879876258999</v>
-      </c>
-      <c r="G12" s="9">
-        <v>6.4437682192284997</v>
-      </c>
-      <c r="H12" s="9">
-        <v>-3.4573353445783002</v>
-      </c>
-      <c r="I12" s="9">
-        <v>2.7889535483145999E-2</v>
-      </c>
-      <c r="J12" s="9">
-        <v>-2.0838887526796E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="8">
-        <v>13.85</v>
-      </c>
-      <c r="C13" s="9">
-        <v>-1.9545773369158002E-2</v>
-      </c>
-      <c r="D13" s="10">
-        <v>8.5285642757475001E-3</v>
-      </c>
-      <c r="E13" s="9">
-        <v>2.5100642699782001</v>
-      </c>
-      <c r="F13" s="9">
-        <v>1.7386072627078999</v>
-      </c>
-      <c r="G13" s="9">
-        <v>6.2001154993528997</v>
-      </c>
-      <c r="H13" s="9">
-        <v>-3.2007740235314999</v>
-      </c>
-      <c r="I13" s="9">
-        <v>4.2761779656091001E-2</v>
-      </c>
-      <c r="J13" s="9">
-        <v>-2.6422587314556999E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="8">
-        <v>16.05</v>
-      </c>
-      <c r="C14" s="9">
-        <v>-1.4269545884991E-2</v>
-      </c>
-      <c r="D14" s="10">
-        <v>6.2769029300731999E-3</v>
-      </c>
-      <c r="E14" s="9">
-        <v>2.3597862744145002</v>
-      </c>
-      <c r="F14" s="9">
-        <v>1.4922205482990001</v>
-      </c>
-      <c r="G14" s="9">
-        <v>6.4897698637688999</v>
-      </c>
-      <c r="H14" s="9">
-        <v>-3.2790719057766999</v>
-      </c>
-      <c r="I14" s="9">
-        <v>-3.0179084116985E-2</v>
-      </c>
-      <c r="J14" s="9">
-        <v>-3.0179084079827001E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="8">
-        <v>18.25</v>
-      </c>
-      <c r="C15" s="10">
-        <v>-7.7630003810187998E-3</v>
-      </c>
-      <c r="D15" s="10">
-        <v>3.4304149713981998E-3</v>
-      </c>
-      <c r="E15" s="9">
-        <v>2.2861877995300999</v>
-      </c>
-      <c r="F15" s="9">
-        <v>1.3687866620975999</v>
-      </c>
-      <c r="G15" s="9">
-        <v>7.1596095218619</v>
-      </c>
-      <c r="H15" s="9">
-        <v>-3.5710496262152001</v>
-      </c>
-      <c r="I15" s="9">
-        <v>6.5763131015224005E-2</v>
-      </c>
-      <c r="J15" s="9">
-        <v>-3.2442317289660003E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="8">
-        <v>20.45</v>
-      </c>
-      <c r="C16" s="14">
-        <v>-2.0895362365106E-4</v>
-      </c>
-      <c r="D16" s="14">
-        <v>7.5936804217188001E-5</v>
-      </c>
-      <c r="E16" s="9">
-        <v>2.2338883824106999</v>
-      </c>
-      <c r="F16" s="9">
-        <v>1.2900988929787001</v>
-      </c>
-      <c r="G16" s="9">
-        <v>8.3955769364999995</v>
-      </c>
-      <c r="H16" s="9">
-        <v>-4.1533850756586999</v>
-      </c>
-      <c r="I16" s="9">
-        <v>7.4788768870607994E-2</v>
-      </c>
-      <c r="J16" s="9">
-        <v>-3.3470051859051997E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="8">
+      <c r="B17" s="11">
         <v>22.65</v>
       </c>
-      <c r="C17" s="10">
-        <v>8.2449285486630008E-3</v>
-      </c>
-      <c r="D17" s="10">
-        <v>-3.7158263906614999E-3</v>
-      </c>
-      <c r="E17" s="9">
-        <v>2.1898408665194</v>
-      </c>
-      <c r="F17" s="9">
-        <v>1.2329769623244</v>
-      </c>
-      <c r="G17" s="9">
-        <v>11.045424775241999</v>
-      </c>
-      <c r="H17" s="9">
-        <v>-5.4350435287875998</v>
-      </c>
-      <c r="I17" s="9">
-        <v>8.2574052852067995E-2</v>
-      </c>
-      <c r="J17" s="9">
-        <v>-3.3464797217524003E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-    </row>
-    <row r="19" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-    </row>
-    <row r="20" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-    </row>
-    <row r="21" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-    </row>
-    <row r="22" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-    </row>
-    <row r="23" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-    </row>
-    <row r="24" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
+      <c r="C17" s="14">
+        <v>-0.0130234399383757</v>
+      </c>
+      <c r="D17" s="14">
+        <v>0.00440561068383801</v>
+      </c>
+      <c r="E17" s="12">
+        <v>2.19102518579563</v>
+      </c>
+      <c r="F17" s="12">
+        <v>1.23324899511855</v>
+      </c>
+      <c r="G17" s="12">
+        <v>11.1094259360196</v>
+      </c>
+      <c r="H17" s="12">
+        <v>-5.46755616774612</v>
+      </c>
+      <c r="I17" s="12">
+        <v>0.0744875636804169</v>
+      </c>
+      <c r="J17" s="12">
+        <v>-0.0332490629371521</v>
+      </c>
+    </row>
+    <row r="18" ht="20" customHeight="1">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" ht="20" customHeight="1">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+    </row>
+    <row r="20" ht="20" customHeight="1">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+    </row>
+    <row r="21" ht="20" customHeight="1">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+    </row>
+    <row r="22" ht="20" customHeight="1">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+    </row>
+    <row r="23" ht="20" customHeight="1">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+    </row>
+    <row r="24" ht="20" customHeight="1">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup scale="72" orientation="portrait"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
